--- a/03_Outputs/all/01_TablasDescriptivas/idx9_infnin_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx9_infnin_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.535592581533734</v>
+        <v>2.535592581533732</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.886734367784998</v>
+        <v>1.886734367785</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.649619529984473</v>
+        <v>1.64961952998447</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.142532382401652</v>
+        <v>1.142532382401653</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.9057983878300121</v>
+        <v>0.9057983878300123</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.7434515264498468</v>
+        <v>0.7434515264498469</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.6266001658885051</v>
+        <v>0.6266001658885052</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.5350218190412837</v>
+        <v>0.5350218190412833</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.4237425185068645</v>
+        <v>0.4237425185068647</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.401394829054568</v>
+        <v>0.4013948290545673</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.1495118915240699</v>
+        <v>0.1495118915240702</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>2.535592581533734</v>
+        <v>2.535592581533732</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>6.071946479303205</v>
+        <v>6.071946479303202</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>7.214478861704857</v>
+        <v>7.214478861704856</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>8.120277249534869</v>
+        <v>8.120277249534867</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>8.863728775984717</v>
+        <v>8.863728775984715</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>9.490328941873221</v>
+        <v>9.490328941873219</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>10.85048810847594</v>
+        <v>10.85048810847593</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>23.05084165030666</v>
+        <v>23.05084165030664</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>17.15213061622725</v>
+        <v>17.15213061622726</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>14.99654118167701</v>
+        <v>14.996541181677</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>10.38665802183319</v>
+        <v>10.38665802183321</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>8.234530798454651</v>
+        <v>8.234530798454653</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>6.758650240453148</v>
+        <v>6.75865024045315</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>5.696365144440952</v>
+        <v>5.696365144440954</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>4.863834718557121</v>
+        <v>4.863834718557118</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>3.852204713698766</v>
+        <v>3.852204713698768</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>3.64904390049607</v>
+        <v>3.649043900496065</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.35919901385518</v>
+        <v>1.359199013855183</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>23.05084165030666</v>
+        <v>23.05084165030664</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>55.19951344821092</v>
+        <v>55.1995134482109</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>94.99175708564876</v>
+        <v>94.99175708564874</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>98.64080098614482</v>
+        <v>98.64080098614481</v>
       </c>
       <c r="C44">
         <v>10</v>
